--- a/medicine/Mort/Monument_aux_morts_de_Château-Arnoux/Monument_aux_morts_de_Château-Arnoux.xlsx
+++ b/medicine/Mort/Monument_aux_morts_de_Château-Arnoux/Monument_aux_morts_de_Château-Arnoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_de_Ch%C3%A2teau-Arnoux</t>
+          <t>Monument_aux_morts_de_Château-Arnoux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ville de Château-Arnoux située dans le département des Alpes-de-Haute-Provence possède un des monuments aux morts pacifistes français. 
 Le monument est constitué d'un couple avec une femme en pleurs et un homme brisant une épée, symbolisant la douleur et la révolte après la perte d'un fils lors de la Première Guerre mondiale qui se déroula de 1914 à 1918. C'est le premier conflit armé qui impliqua autant de pays à travers le monde. Les pertes humaines s’élevèrent à plus de 8 millions de morts et 6 millions d'invalides. 
